--- a/POF File/ZOB_POF_FILE.xlsx
+++ b/POF File/ZOB_POF_FILE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve_zxf9vd\OneDrive\Documents\GitHub\ZOBFacilities\POF File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{4A3A6CBB-0C3B-4BA8-8944-6168CB57A280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24273F9E-DC39-4167-9228-4198E125B93C}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:40009_{4A3A6CBB-0C3B-4BA8-8944-6168CB57A280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{385B9986-59AE-4EB8-A98F-411656E65F72}"/>
   <bookViews>
-    <workbookView xWindow="14715" yWindow="3390" windowWidth="22095" windowHeight="9435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkingSheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9552" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9551" uniqueCount="1446">
   <si>
     <t>; VATSIM Cleveland (ZOB) Position File</t>
   </si>
@@ -5245,7 +5245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L577"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="C527" sqref="C527"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22089,8 +22091,8 @@
       <c r="B527" t="s">
         <v>635</v>
       </c>
-      <c r="C527" s="1" t="s">
-        <v>782</v>
+      <c r="C527" s="1">
+        <v>127.97</v>
       </c>
       <c r="D527" t="s">
         <v>664</v>
@@ -23641,7 +23643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
+      <selection activeCell="A525" sqref="A525"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26767,7 +26771,7 @@
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="str">
         <f>IF(ISBLANK(WorkingSheet!B527),WorkingSheet!A527,_xlfn.CONCAT(WorkingSheet!A527,":",WorkingSheet!B527,":",TEXT(WorkingSheet!C527,"000.000"),":",WorkingSheet!D527,":",WorkingSheet!E527,":",WorkingSheet!F527,":",WorkingSheet!G527,":",WorkingSheet!H527,":",WorkingSheet!I527,":",TEXT(WorkingSheet!J527,"0000"),":",TEXT(WorkingSheet!K527,"0000")))</f>
-        <v>Boston High Sector 46:Boston Center:126.220:B46:C:BOS:CTR:ZBW:B46:0000:0000</v>
+        <v>Boston High Sector 46:Boston Center:127.970:B46:C:BOS:CTR:ZBW:B46:0000:0000</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
